--- a/mtproto/main/data/DailyEventsTable.xlsx
+++ b/mtproto/main/data/DailyEventsTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>NOTHING</t>
   </si>
@@ -22,49 +22,75 @@
     <t>Uneventful Day</t>
   </si>
   <si>
+    <t>Another day passes by...</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Solar Flares</t>
+  </si>
+  <si>
+    <t>Annoying Sound Stopped/Started</t>
+  </si>
+  <si>
+    <t>Flavor Packet Found</t>
+  </si>
+  <si>
+    <t>Random Cat Video Broadcast</t>
+  </si>
+  <si>
+    <t>Bad News</t>
+  </si>
+  <si>
+    <t>Crew Evaluation (Result: Mutiny or Fervor)</t>
+  </si>
+  <si>
+    <t>Malfunctioning System: Systems Check (S)</t>
+  </si>
+  <si>
+    <t>Starts = Everyone adds -1 to their Efficiency Modifier  until the noise stops
+Stops = Everyone adds +1 to their Efficiency Modifier  until the noise starts</t>
+  </si>
+  <si>
+    <t>Instantly heal 1 HP of damage from a crew member of choice.</t>
+  </si>
+  <si>
+    <t>Ignore the next event; Everyone in the area is much too busy watching the cat video. (Uneventful days don't count)</t>
+  </si>
+  <si>
+    <t>Pick a random crew member. That crew member adds -3 to their next Systems Check roll.</t>
+  </si>
+  <si>
+    <t>If it is earlier than Day 50, ignore this event (Uneventful Day).
+Roll a D6 for every crew member equal to or below half health. On a 12+, the crew mutinies and the game is over. Otherwise, everyone gets +1 on the next system check.</t>
+  </si>
+  <si>
+    <t>MEETINGS</t>
+  </si>
+  <si>
     <t>EVENTS</t>
   </si>
   <si>
-    <t>MEETINGS</t>
+    <t>Space Pirates</t>
   </si>
   <si>
     <t>Derilict Probe</t>
   </si>
   <si>
-    <t>Another day passes by...</t>
-  </si>
-  <si>
-    <t>Space Pirates</t>
-  </si>
-  <si>
-    <t>Crew Development</t>
-  </si>
-  <si>
-    <t>Surveyor Encounter</t>
-  </si>
-  <si>
     <t>Derelict Ship</t>
   </si>
   <si>
-    <t>See Battle! Rules</t>
-  </si>
-  <si>
-    <t>Random crew member gives mission/asks for advice. If answered correctly, boosts morale of crew member.</t>
-  </si>
-  <si>
     <t>Abandoned spacecraft</t>
   </si>
   <si>
-    <t>Roll a D4 for you and another for the Surveyor. The result determines what resources can be traded. I.e: 1 for you and 3 for Surveyor would mean you could trade P components for C components. 4 = re-roll</t>
-  </si>
-  <si>
-    <t>Rare Comet Sighting</t>
+    <t>Electromagnetic Disturbance</t>
   </si>
   <si>
     <t>Asteroid Field</t>
   </si>
   <si>
-    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Surveyor Encounter</t>
+    <t>Static Interference</t>
   </si>
   <si>
     <t>Search: System Check (S) 7+
@@ -75,59 +101,26 @@
 Avoid: System Check (E) 5+</t>
   </si>
   <si>
-    <t xml:space="preserve">Hopeful Event; Resolve Check on 2 random crew members. Success = -1 Affliction Level  </t>
+    <t>Malfunctioning System: Systems Check (E)</t>
   </si>
   <si>
     <t>Search: System Check (E) 7+
 Avoid: System Check (E) 5+</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Nebula</t>
-  </si>
-  <si>
-    <t>Annoying Sound Stopped/Started</t>
-  </si>
-  <si>
-    <t>Flavor Packet Found</t>
-  </si>
-  <si>
-    <t>Random Cat Video Broadcast</t>
-  </si>
-  <si>
-    <t>Bad News</t>
-  </si>
-  <si>
-    <t>Crew Evaluation (Result: Mutiny or Fervor)</t>
-  </si>
-  <si>
-    <t>Starts = Everyone takes a Sanity Check
-Stops = Roll D6 for each crew member, cured of 1 Aff point on 3+</t>
-  </si>
-  <si>
-    <t>Morale up 10 points. Food is tasty for the day and the crew consumes 1 extra food unit (total).</t>
-  </si>
-  <si>
-    <t>Intercept a broadcast of funny cat videos. Morale up 10 points.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Make a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Resolve Roll</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> for a random crew member. If they fail, they automatically gain 1 Affliction level</t>
-    </r>
-  </si>
-  <si>
-    <t>Add up the affliction points across all crew members and roll that many D6. If the result is 24+, the crew mutinies and the game ends. If the result is lower, the crew rallies towards their goal; choose one crew member and lower their affliction level by 1.</t>
+    <t>See Battle! Rules</t>
+  </si>
+  <si>
+    <t>Malfunctioning System: Systems Check (C)</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (E Components)</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Resource Collection Oppertunity (C Components)</t>
+  </si>
+  <si>
+    <t>Roll D6; On 1-2, triggers Space Pirates; on 3+ triggers Surveyor Encounter</t>
   </si>
 </sst>
 </file>
@@ -190,16 +183,16 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,22 +277,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -329,47 +322,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -404,47 +397,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -470,52 +463,57 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="33.43"/>
+    <col customWidth="1" min="1" max="1" width="30.14"/>
+    <col customWidth="1" min="2" max="2" width="38.71"/>
+    <col customWidth="1" min="3" max="3" width="36.57"/>
+    <col customWidth="1" min="4" max="4" width="30.29"/>
+    <col customWidth="1" min="5" max="5" width="32.14"/>
+    <col customWidth="1" min="6" max="6" width="49.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
